--- a/Management/January/Goals_until_24.01.2019.xlsx
+++ b/Management/January/Goals_until_24.01.2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarik\Desktop\personalorganizer\Management\January\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2956876A-86D6-4775-A4B8-7F01A60A178A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F43E02-6948-4462-9DF8-8640D5F5F889}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{0EEE012E-99F8-4BEA-BA6F-6A18A2C7279B}"/>
   </bookViews>
@@ -35,27 +35,6 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>Zeitaufwand</t>
-  </si>
-  <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
-    <t>Erledigt</t>
-  </si>
-  <si>
-    <t>Verantwortlich</t>
-  </si>
-  <si>
-    <t>Projektvorbereitung</t>
-  </si>
-  <si>
-    <t>Angular, Nodejs und Ionic installieren</t>
-  </si>
-  <si>
-    <t>Nein</t>
-  </si>
-  <si>
     <t>Simon Blaha</t>
   </si>
   <si>
@@ -74,13 +53,34 @@
     <t>2 h</t>
   </si>
   <si>
-    <t>Installation und in Betriebnahme eines Fake Rest Servers</t>
-  </si>
-  <si>
     <t>3 - 5 h</t>
   </si>
   <si>
-    <t>Fälligkeitsdatum</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Time Expenses</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Project preperation</t>
+  </si>
+  <si>
+    <t>install Angualr, NodeJS and Ionic</t>
+  </si>
+  <si>
+    <t>Installation and commissioning of a fake rest server</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,99 +453,99 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
